--- a/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2017-18.xlsx
+++ b/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2017-18.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>58.0%</t>
+          <t>46.0%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-11.9</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,12 +679,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>46.0%</t>
+          <t>58.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -694,17 +694,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>50.7%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -1494,17 +1494,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1514,22 +1514,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>59.0%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -1559,42 +1559,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50.7%</t>
+          <t>59.0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Rudy Gay</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>64.6%</t>
+          <t>56.4%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2124,17 +2124,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-11.3</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rudy Gay</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2154,12 +2154,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>56.4%</t>
+          <t>64.6%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2189,17 +2189,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -2729,42 +2729,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>41.6%</t>
+          <t>46.0%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -2794,42 +2794,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>46.0%</t>
+          <t>41.6%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -3119,22 +3119,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>52.8%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3164,17 +3164,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-9.5</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -3184,22 +3184,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>52.8%</t>
+          <t>38.8%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3229,17 +3229,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>28.9</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>-9.5</t>
         </is>
       </c>
     </row>
@@ -3379,17 +3379,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ian Clark</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3399,22 +3399,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>55.8%</t>
+          <t>53.0%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -3444,17 +3444,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Ian Clark</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3464,22 +3464,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53.0%</t>
+          <t>55.8%</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3489,17 +3489,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -4614,42 +4614,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Pau Gasol</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -4744,42 +4744,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pau Gasol</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>13.8</t>
         </is>
       </c>
     </row>
@@ -5589,22 +5589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>62.9%</t>
+          <t>45.8%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -5654,22 +5654,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>62.9%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5704,12 +5704,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -5719,42 +5719,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Evan Turner</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>39.4%</t>
+          <t>51.0%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -5784,42 +5784,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Evan Turner</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>39.4%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -5914,22 +5914,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>38.2%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-9.7</t>
         </is>
       </c>
     </row>
@@ -5979,22 +5979,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>38.2%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -6044,37 +6044,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Robert Covington</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>48.8%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6094,12 +6094,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -6109,17 +6109,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Robert Covington</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6129,22 +6129,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>42.0%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-9.7</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -6434,17 +6434,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Al-Farouq Aminu</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6454,22 +6454,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -6499,17 +6499,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6519,22 +6519,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-11.8</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Al-Farouq Aminu</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6574,32 +6574,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -6629,17 +6629,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Wayne Ellington</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6649,17 +6649,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>58.8%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>7.9</t>
         </is>
       </c>
     </row>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>58.8%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>-11.8</t>
         </is>
       </c>
     </row>
@@ -7539,42 +7539,42 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -7604,42 +7604,42 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>42.0%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -7669,22 +7669,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7699,12 +7699,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>73.7%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>15.8</t>
         </is>
       </c>
     </row>
@@ -7734,42 +7734,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>45.8%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -7799,42 +7799,42 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>18.8</t>
         </is>
       </c>
     </row>
@@ -8189,22 +8189,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8214,17 +8214,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-17.5</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -8254,17 +8254,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Raymond Felton</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8274,22 +8274,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-26.7</t>
+          <t>-17.5</t>
         </is>
       </c>
     </row>
@@ -8319,42 +8319,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Raymond Felton</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-19.2</t>
+          <t>-26.7</t>
         </is>
       </c>
     </row>
@@ -8384,42 +8384,42 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Caleb Swanigan</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>-19.2</t>
         </is>
       </c>
     </row>
@@ -8449,37 +8449,37 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Caleb Swanigan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -8709,17 +8709,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8729,22 +8729,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>37.1%</t>
+          <t>42.6%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8859,22 +8859,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>37.1%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Quinn Cook</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>-24.0</t>
         </is>
       </c>
     </row>
@@ -10139,42 +10139,42 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Dwyane Wade</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-10.2</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -10204,42 +10204,42 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>-10.2</t>
         </is>
       </c>
     </row>
@@ -10269,22 +10269,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10294,12 +10294,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10319,12 +10319,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-20.3</t>
         </is>
       </c>
     </row>
@@ -10334,17 +10334,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Quinn Cook</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10354,22 +10354,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-20.3</t>
+          <t>-6.7</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Meyers Leonard</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10414,27 +10414,27 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-42.1</t>
         </is>
       </c>
     </row>
@@ -10464,22 +10464,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Meyers Leonard</t>
+          <t>Brandon Paul</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -10494,12 +10494,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-42.1</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -10529,17 +10529,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Brandon Paul</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -10549,22 +10549,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>48.3%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>20.1</t>
         </is>
       </c>
     </row>
@@ -10594,27 +10594,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dwyane Wade</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10624,12 +10624,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>-24.6</t>
         </is>
       </c>
     </row>
@@ -10659,42 +10659,42 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-24.6</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Tony Parker</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10944,17 +10944,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -10984,22 +10984,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tony Parker</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11009,17 +11009,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -11049,42 +11049,42 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Jason Terry</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -11114,42 +11114,42 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>23.8</t>
         </is>
       </c>
     </row>
@@ -11179,12 +11179,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -11194,27 +11194,27 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>-15.8</t>
         </is>
       </c>
     </row>
@@ -11244,42 +11244,42 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Jason Terry</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-15.8</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -11309,42 +11309,42 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Lucas Nogueira</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-36.9</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -11374,42 +11374,42 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lucas Nogueira</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>-36.9</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Tyler Zeller</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -11579,12 +11579,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11599,12 +11599,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>30.3%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>29.4</t>
         </is>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tyler Zeller</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -11644,12 +11644,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -11664,12 +11664,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>30.3%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -11699,22 +11699,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Ian Mahinmi</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -11729,12 +11729,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>21.9%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>21.9</t>
         </is>
       </c>
     </row>
@@ -11764,22 +11764,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ian Mahinmi</t>
+          <t>Ante Zizic</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -11789,17 +11789,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>21.9%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>-23.4</t>
         </is>
       </c>
     </row>
@@ -11829,22 +11829,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ante Zizic</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -11854,17 +11854,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-23.4</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -12089,42 +12089,42 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Dakari Johnson</t>
+          <t>Shabazz Muhammad</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>-37.1</t>
         </is>
       </c>
     </row>
@@ -12154,42 +12154,42 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ekpe Udoh</t>
+          <t>Lorenzo Brown</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>22.9</t>
+          <t>-36.4</t>
         </is>
       </c>
     </row>
@@ -12219,42 +12219,42 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jordan Crawford</t>
+          <t>Ekpe Udoh</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-44.5</t>
+          <t>22.9</t>
         </is>
       </c>
     </row>
@@ -12349,17 +12349,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Aaron Brooks</t>
+          <t>Jordan Crawford</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-16.7</t>
+          <t>-44.5</t>
         </is>
       </c>
     </row>
@@ -12414,22 +12414,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Luke Babbitt</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>71.4</t>
         </is>
       </c>
     </row>
@@ -12479,22 +12479,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Luke Babbitt</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>60.5</t>
         </is>
       </c>
     </row>
@@ -12544,42 +12544,42 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tomas Satoransky</t>
+          <t>Chinanu Onuaku</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-19.1</t>
+          <t>-42.5</t>
         </is>
       </c>
     </row>
@@ -12674,17 +12674,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lorenzo Brown</t>
+          <t>Aaron Brooks</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -12694,17 +12694,17 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -12724,12 +12724,12 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-36.4</t>
+          <t>-16.7</t>
         </is>
       </c>
     </row>
@@ -12739,42 +12739,42 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Shabazz Muhammad</t>
+          <t>Dakari Johnson</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-37.1</t>
+          <t>13.8</t>
         </is>
       </c>
     </row>
@@ -12804,42 +12804,42 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chinanu Onuaku</t>
+          <t>Tomas Satoransky</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-42.5</t>
+          <t>-19.1</t>
         </is>
       </c>
     </row>
@@ -13129,17 +13129,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>David Stockton</t>
+          <t>Patrick McCaw</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13164,27 +13164,27 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>-44.5</t>
         </is>
       </c>
     </row>
@@ -13194,17 +13194,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patrick McCaw</t>
+          <t>David Stockton</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-44.5</t>
+          <t>63.1</t>
         </is>
       </c>
     </row>
